--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -10,14 +10,14 @@
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$D$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$D$24</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Test Case #</t>
   </si>
@@ -38,7 +38,7 @@
   </si>
   <si>
     <t>1) Click on tab link to
-(Home,Browse,Collection, Add)</t>
+(Home, Browse, Collection, Add)</t>
   </si>
   <si>
     <t xml:space="preserve">1) Link user to respective page </t>
@@ -47,22 +47,22 @@
     <t>User at Home Content Page (Browse Collection)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Browse collection link</t>
-  </si>
-  <si>
-    <t>1) Clicking will link users to collection page</t>
+    <t>Browse collection link</t>
+  </si>
+  <si>
+    <t>1) Clicking will link user to collection page</t>
   </si>
   <si>
     <t>1) Users able to look for soap collection images, soap label name,color, country and for skin type</t>
   </si>
   <si>
-    <t>User at Bottom Home Content Page (Browse,Collection, Add)</t>
+    <t>User at Bottom Home Content Page (Browse, Collection, Add)</t>
   </si>
   <si>
     <t xml:space="preserve"> Browse, Collection or Add</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Clicking will link users to respective pages </t>
+    <t xml:space="preserve">1) Clicking will link user to respective pages </t>
   </si>
   <si>
     <t>1) Users able to browse search for collections at browse page
@@ -73,18 +73,34 @@
     <t>User at Browse Page</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accordian dropdown</t>
+    <t>Accordian dropdown</t>
   </si>
   <si>
     <t>1) Clicking on dropdown</t>
   </si>
   <si>
-    <t>1)Clicking on dropdown will enable users to search for following fields color, country, max &amp; min cost, skin type.
-* 2 way-binding is working for above search form field
-2) Search input field able to search for most fields except for cost and comments
-3) After keying all inputs , press search button to display results
-4) Validation error will show  for invalid cost input such as negative value for both min and max or max value lower than min value upon clicking on search button
-5) Relavant collections will display after the accordian box upon clicking on the search button</t>
+    <t xml:space="preserve">1) Clicking on dropdown will enable users to input search for following fields color, country, max &amp; min cost, skin type.
+</t>
+  </si>
+  <si>
+    <t>2) Search input box field in accordian</t>
+  </si>
+  <si>
+    <t>1) Search input box field  is able to search for most fields except for cost and comments upon clicking on the search button</t>
+  </si>
+  <si>
+    <t>3) Search filter input box, checkbox and dropdown in accordian</t>
+  </si>
+  <si>
+    <t>1) Users able to filter search by min max cost input box, checkbox  filter field(skin type) and dropdown list( country &amp; color ) upon clicking on the search button
+2) Validation error will show  for invalid cost input such as negative value for both min and max or max value lower than min value upon clicking on search button</t>
+  </si>
+  <si>
+    <t>4) Search button in accordian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2) Results of relavant collections will display after the accordian box upon clicking on the search button</t>
   </si>
   <si>
     <t xml:space="preserve">Collection cards </t>
@@ -101,7 +117,6 @@
   <si>
     <t>1) Users are able to edit all fields in the collection 
 eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more…
-* 2 way-binding is working for above form field
 2) After editing , click on update located at the bottom of modal  to update the changes</t>
   </si>
   <si>
@@ -111,10 +126,9 @@
     <t xml:space="preserve">2) Clicking on more </t>
   </si>
   <si>
-    <t>1) Click on more and it will bring users to a modal view details of the product
+    <t xml:space="preserve">1) Click on more and it will bring users to a modal view details of the product
 eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more… 
-2) At the bottom of the modal  , users able to post their username and comments , it will appear in the review section 
-* 2 way-binding is working for above form field</t>
+2) At the bottom of the modal  , users able to post their username and comments , it will appear in the review section </t>
   </si>
   <si>
     <t>3) Clicking on delete cross icon at  top right most corner</t>
@@ -129,28 +143,31 @@
   <si>
     <t>1) Users are able to edit all fields in the collection 
 eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more…
-2) Any fields that are not filled or not filled properly , validation error will be shown upon clicking on update button
-* 2 way-binding is working for above form field
+2) Any fields that are not filled or not filled properly, validation error will be shown below each field upon clicking on add button
 3) After editing , click on update located at the bottom of modal  to update the changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Click on more and it will bring users to a modal view details of the product
+eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more… 
+2) At the bottom of the modal , users able to post their username and comments , it will appear in the review section </t>
   </si>
   <si>
     <t xml:space="preserve">1) Bring users to confirm delete modal page, prompt users to be sure to delete
 2) Users able to delete by clicking on the delete button at bottom of modal and item will be removed from collection  </t>
   </si>
   <si>
-    <t>Users at Add Page</t>
+    <t>User at Add Page</t>
   </si>
   <si>
     <t>Add page input field</t>
   </si>
   <si>
-    <t>1) Users fill in values in input field</t>
+    <t>1) User fill in values in input field</t>
   </si>
   <si>
     <t>1) Users are to fill in all fields 
 eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more…
-* 2 way-binding is working for above form field
-2) Any fields that are not filled or not filled properly , validation error will be shown upon clicking on add button
+2) Any fields that are not filled or not filled properly, validation error will be shown below each field upon clicking on add button
 3) After filling all fields , click on add button located at the bottom of modal  to add to collection</t>
   </si>
 </sst>
@@ -576,7 +593,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -584,7 +601,7 @@
   <cols>
     <col min="1" max="1" style="13" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="14" width="72.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="54.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="66.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="14" width="45.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -674,7 +691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="34.2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="40.8">
       <c r="A9" s="12"/>
       <c r="B9" s="10" t="s">
         <v>16</v>
@@ -682,7 +699,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="52.20000000000001">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -696,139 +713,175 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="45">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="49.20000000000001">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="127.2">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="145.2">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="60.6">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="29.399999999999995">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="11" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="46.20000000000001">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="49.20000000000001">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="190.80000000000004">
-      <c r="A17" s="6">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="126">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="46.20000000000001">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="49.20000000000001">
+      <c r="A19" s="6">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="164.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="43.79999999999999">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="176.4">
-      <c r="A21" s="9">
+      <c r="D21" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="43.79999999999999">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="176.4">
+      <c r="A24" s="9">
         <v>6</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EFFA16-03A7-430E-A161-47DF71263167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F3735F-86C4-4577-983E-B9C81F45EE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Test Case #</t>
   </si>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <t>Browse collection link</t>
-  </si>
-  <si>
-    <t>1) Users are able to edit all fields in the collection 
-eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more…
-2) Any fields that are not filled or not filled properly, validation error will be shown below each field upon clicking on add button
-3) After editing , click on update located at the bottom of modal  to update the changes</t>
   </si>
   <si>
     <t>2) Search input box field in accordian</t>
@@ -627,8 +621,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -748,10 +742,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -760,10 +754,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -772,10 +766,10 @@
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -799,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -811,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -848,7 +842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="9" t="s">
         <v>17</v>
@@ -857,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
@@ -869,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -903,7 +897,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F3735F-86C4-4577-983E-B9C81F45EE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5DCCEB-0D81-4079-B883-9754E9012534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$D$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$D$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Test Case #</t>
   </si>
@@ -101,14 +101,7 @@
     <t>1)Hovering  mouse in and out over image</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Bring users to confirm delete modal page, prompt users to be sure to delete
-2) Users able to delete by clicking on the delete button at bottom of modal and item will be removed from collection  </t>
-  </si>
-  <si>
     <t>Add page input field</t>
-  </si>
-  <si>
-    <t>User at Collection Page</t>
   </si>
   <si>
     <t>1) Users able to look for soap collection images, soap label name,color, country and for skin type</t>
@@ -175,11 +168,6 @@
 2) Any fields that are not filled or not filled properly, validation error will be shown below each field upon clicking on update button
 3) If no fields are filled and upon clicking on update button, validation errors will show for all fields
 4) After editing , click on update located at the bottom of modal  to update the changes</t>
-  </si>
-  <si>
-    <t>1) Click on more and it will bring users to a modal view details of the product
-eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more… 
-2) At the bottom of the modal , users able to post their username and comments , it will appear in the review section with time posted</t>
   </si>
   <si>
     <t>1) Click on more and it will bring users to a modal view details of the product
@@ -266,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,11 +276,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -302,6 +288,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +606,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,16 +622,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -664,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -683,19 +670,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -708,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -727,49 +714,49 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>38</v>
+      <c r="D10" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -793,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -805,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -820,91 +807,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>6</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5DCCEB-0D81-4079-B883-9754E9012534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB52E4-3DF5-4C29-AB9A-8555472ABFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">1) Link user to respective page </t>
   </si>
   <si>
-    <t>User at Home Content Page (Browse Collection)</t>
-  </si>
-  <si>
     <t>1) Users able to browse search for collections at browse page
 2) Users able to look at entire collection at collection page 
 3) Users able to add new items at add page</t>
@@ -70,9 +67,6 @@
     <t>User at Browse Page</t>
   </si>
   <si>
-    <t xml:space="preserve"> Browse, Collection or Add</t>
-  </si>
-  <si>
     <t>1) Clicking on dropdown</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
     <t>1) Users able to look for soap collection images, soap label name,color, country and for skin type</t>
   </si>
   <si>
-    <t>1) Clicking will link user to collection page</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Clicking will link user to respective pages </t>
   </si>
   <si>
@@ -120,16 +111,6 @@
   </si>
   <si>
     <t>Accordian dropdown</t>
-  </si>
-  <si>
-    <t>User at Bottom Home Content Page (Browse, Collection, Add)</t>
-  </si>
-  <si>
-    <t>1) Click on tab link to
-(Home, Browse, Collection, Add)</t>
-  </si>
-  <si>
-    <t>Browse collection link</t>
   </si>
   <si>
     <t>2) Search input box field in accordian</t>
@@ -173,6 +154,25 @@
     <t>1) Click on more and it will bring users to a modal view details of the product
 eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more… 
 2) At the bottom of the modal  , users able to post their username and comments , it will appear in the review section with time posted</t>
+  </si>
+  <si>
+    <t>1) Click on tab link to
+(Home, Browse, Add)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User at Home Content Page </t>
+  </si>
+  <si>
+    <t>User at Bottom Home Content Page (Browse,  Add)</t>
+  </si>
+  <si>
+    <t>1) Clicking will link user to browse page</t>
+  </si>
+  <si>
+    <t>Browse tab link (centre browse button)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Browse or Add button link</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -660,7 +660,7 @@
     <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -670,19 +670,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -692,19 +692,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -714,103 +714,103 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -820,13 +820,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB52E4-3DF5-4C29-AB9A-8555472ABFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33D4D06-910C-4DEB-9FA9-A6A80C8C89FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
@@ -56,14 +56,6 @@
     <t>Clicking on different tabs to respective page</t>
   </si>
   <si>
-    <t xml:space="preserve">1) Link user to respective page </t>
-  </si>
-  <si>
-    <t>1) Users able to browse search for collections at browse page
-2) Users able to look at entire collection at collection page 
-3) Users able to add new items at add page</t>
-  </si>
-  <si>
     <t>User at Browse Page</t>
   </si>
   <si>
@@ -73,19 +65,6 @@
     <t xml:space="preserve">Collections cards </t>
   </si>
   <si>
-    <t xml:space="preserve">1)  Clicking on edit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) Clicking on more </t>
-  </si>
-  <si>
-    <t>3) Clicking on delete cross icon at  top right most corner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Bring users to confirm delete modal page, prompt users to be sure to delete
-2) Users able to delete by clickong on the delete button at bottom of modal and item will be removed from collection  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Collection cards </t>
   </si>
   <si>
@@ -98,12 +77,6 @@
     <t>Add page input field</t>
   </si>
   <si>
-    <t>1) Users able to look for soap collection images, soap label name,color, country and for skin type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Clicking will link user to respective pages </t>
-  </si>
-  <si>
     <t>1) User fill in values in input field</t>
   </si>
   <si>
@@ -123,18 +96,10 @@
   </si>
   <si>
     <t>1) Search input box field  is able to search for most fields except for cost and comments upon clicking on the search button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2) Results of relavant collections will display after the accordian box upon clicking on the search button</t>
   </si>
   <si>
     <t>1) Users able to filter search by min max cost input box, checkbox  filter field(skin type) and dropdown list( country &amp; color ) upon clicking on the search button
 2) Validation error will show  for invalid cost input such as negative value for both min and max or max value lower than min value upon clicking on search button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Clicking on dropdown will enable users to input search for following fields color, country, max &amp; min cost, skin type.
-</t>
   </si>
   <si>
     <t>1) Users are to fill in all fields 
@@ -169,10 +134,49 @@
     <t>1) Clicking will link user to browse page</t>
   </si>
   <si>
-    <t>Browse tab link (centre browse button)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Browse or Add button link</t>
+    <t>Browse or Add button link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Clicking on dropdown will enable users to input search for following fields: color, country, max &amp; min cost, skin type.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Bring users to confirm delete modal page, prompt users to be sure to delete
+2) Users able to delete by clicking on the delete button at the bottom of modal and item will be removed from collection  </t>
+  </si>
+  <si>
+    <t>1) Link user to respective page</t>
+  </si>
+  <si>
+    <t>Browse tab link (centre of content, browse button)</t>
+  </si>
+  <si>
+    <t>1) Clicking will link user to respective page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1) Results of relavant collections will display after the accordian box upon clicking on the search button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2)  Clicking on edit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Clicking on more </t>
+  </si>
+  <si>
+    <t>4) Clicking on delete cross icon at  top right most corner</t>
+  </si>
+  <si>
+    <t>1) Users able to look for soap collection images, soap label name,color, country and for skin type
+2) Users able to look at entire collection at browse page 
+3) Users able to filter and search for wanted soap collection
+*Refer to User at Browse Page for more information(Test Case 4)</t>
+  </si>
+  <si>
+    <t>1) Users able to browse search for collections, look at entire collection at browse page
+*Refer to User at Browse Page for more information(Test Case 4)
+2) Users able to add new collections at add page
+*Refer to User at Add Page for more information(Test Case 5)</t>
   </si>
 </sst>
 </file>
@@ -609,14 +613,14 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" customWidth="1"/>
     <col min="2" max="2" width="72.109375" customWidth="1"/>
-    <col min="3" max="3" width="66" customWidth="1"/>
+    <col min="3" max="3" width="66.5546875" customWidth="1"/>
     <col min="4" max="4" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -651,60 +655,60 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -714,103 +718,103 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -820,13 +824,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,6 +841,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33D4D06-910C-4DEB-9FA9-A6A80C8C89FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2975534-67DC-4C7F-A8C9-A651F5EC46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$D$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$D$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Test Case #</t>
   </si>
@@ -177,6 +177,15 @@
 *Refer to User at Browse Page for more information(Test Case 4)
 2) Users able to add new collections at add page
 *Refer to User at Add Page for more information(Test Case 5)</t>
+  </si>
+  <si>
+    <t>1) Clicking on Logo will link to home page</t>
+  </si>
+  <si>
+    <t>1) Link user to home page</t>
+  </si>
+  <si>
+    <t>Clicking on SoapAura Logo</t>
   </si>
 </sst>
 </file>
@@ -610,10 +619,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,183 +670,195 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
+    <row r="19" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2975534-67DC-4C7F-A8C9-A651F5EC46C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F2E210-2F49-42FD-A424-75DAD9815986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0FE418D9-40D9-41AF-8F0F-CBBF0FE5BF10}"/>
   </bookViews>
@@ -102,20 +102,6 @@
 2) Validation error will show  for invalid cost input such as negative value for both min and max or max value lower than min value upon clicking on search button</t>
   </si>
   <si>
-    <t>1) Users are to fill in all fields 
-eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more…
-2) Any fields that are not filled or not filled properly, validation error will be shown below each field upon clicking on add button
-3) If no fields are filled and upon clicking on add button, validation errors will show for all fields
-4) After filling all fields , click on add button located at the bottom of modal  to add to collection</t>
-  </si>
-  <si>
-    <t>1) Users are able to edit all fields in the collection 
-eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more…
-2) Any fields that are not filled or not filled properly, validation error will be shown below each field upon clicking on update button
-3) If no fields are filled and upon clicking on update button, validation errors will show for all fields
-4) After editing , click on update located at the bottom of modal  to update the changes</t>
-  </si>
-  <si>
     <t>1) Click on more and it will bring users to a modal view details of the product
 eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more… 
 2) At the bottom of the modal  , users able to post their username and comments , it will appear in the review section with time posted</t>
@@ -186,6 +172,22 @@
   </si>
   <si>
     <t>Clicking on SoapAura Logo</t>
+  </si>
+  <si>
+    <t>1) Users are to fill in all fields 
+eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more…
+2) For oil, base and milk ingredient input fill, users are to register input value by hitting enter key after keying in value 
+3) Any fields that are not filled or not filled properly, validation error will be shown below each field upon clicking on add button
+4) If no fields are filled and upon clicking on add button, validation errors will show for all fields
+5) After filling all fields , click on add button located at the bottom of modal  to add to collection</t>
+  </si>
+  <si>
+    <t>1) Users are able to edit all fields in the collection 
+eg. Imageurl, name, email ,contact no, country origin, color, skin type, treat, ingredients, recommended usage and more…
+2) For oil, base and milk ingredient input fill, users are to register input value by hitting enter key after keying in value 
+3) Any fields that are not filled or not filled properly, validation error will be shown below each field upon clicking on update button
+4) If no fields are filled and upon clicking on update button, validation errors will show for all fields
+5) After editing , click on update located at the bottom of modal  to update the changes</t>
   </si>
 </sst>
 </file>
@@ -622,7 +624,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,28 +666,28 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -695,19 +697,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -717,13 +719,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -745,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -781,7 +783,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -796,16 +798,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="249.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,10 +816,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="78" x14ac:dyDescent="0.3">
@@ -826,10 +828,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -840,7 +842,7 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="246.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -851,7 +853,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
